--- a/demo/CMD.xlsx
+++ b/demo/CMD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\user_zhangbin\2021\AutoTest\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\user_zhangbin\2021\AutoTest\Code\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA33C86-832F-47F2-A6C2-AB10DEB29B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13B4B2-9C24-45D5-AF27-193C1D061EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="28260" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Port" sheetId="2" r:id="rId1"/>
@@ -252,7 +252,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-如果期望忽略这个测试结果,写Y,默认不忽略;
+如果期望忽略这个测试结果,写Y或者y,默认不忽略;
 忽略后,该条测试错误时,不停止脚本
 忽略后,该条测试错误时,记录1条warning日志</t>
         </r>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>rcvd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -913,8 +913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -961,6 +961,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -978,6 +981,9 @@
       <c r="E3">
         <v>0</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -995,6 +1001,9 @@
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1012,6 +1021,9 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1029,6 +1041,9 @@
       <c r="E6">
         <v>0</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1046,6 +1061,9 @@
       <c r="E7">
         <v>0</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1265,9 +1283,7 @@
       <c r="E20" s="7">
         <v>0</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1285,6 +1301,9 @@
       <c r="E21">
         <v>0</v>
       </c>
+      <c r="F21" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1301,6 +1320,9 @@
       </c>
       <c r="E22">
         <v>0</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/demo/CMD.xlsx
+++ b/demo/CMD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\user_zhangbin\2021\AutoTest\Code\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F13B4B2-9C24-45D5-AF27-193C1D061EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD25EA0-0B0B-4939-B67B-57F98201D3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="28260" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="1210" windowWidth="27150" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Port" sheetId="2" r:id="rId1"/>
@@ -914,7 +914,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -979,7 +979,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>17</v>
@@ -999,7 +999,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>17</v>
@@ -1019,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>17</v>
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>17</v>
@@ -1079,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1147,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1215,7 +1215,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1232,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="134.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/demo/CMD.xlsx
+++ b/demo/CMD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\user_zhangbin\2021\AutoTest\Code\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD25EA0-0B0B-4939-B67B-57F98201D3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D461D9FF-BB7F-434F-A27C-5EF61B053907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="1210" windowWidth="27150" windowHeight="12800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="1210" windowWidth="27150" windowHeight="18690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Port" sheetId="2" r:id="rId1"/>
@@ -263,36 +263,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>rcvd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~01@VID 1&gt;*</t>
-  </si>
-  <si>
-    <t>~01@VID 2&gt;*</t>
-  </si>
-  <si>
-    <t>~01@VID 3&gt;*</t>
-  </si>
-  <si>
-    <t>~01@VID 4&gt;*</t>
-  </si>
-  <si>
-    <t>~01@VID 5&gt;*</t>
-  </si>
-  <si>
-    <t>~01@VID 6&gt;*</t>
-  </si>
-  <si>
-    <t>~01@VID 7&gt;*</t>
-  </si>
-  <si>
-    <t>~01@VID 8&gt;*</t>
-  </si>
-  <si>
     <t>~01@TIME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -357,127 +333,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#VID 2&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 3&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 4&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 5&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 6&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 7&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 8&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 9&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 11&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 12&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 13&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 14&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 15&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 16&gt;*&lt;CR&gt;</t>
+  </si>
+  <si>
+    <t>#VID 17&gt;*&lt;CR&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart://uart?port=COM3&amp;baud=115200&amp;databits=8&amp;stopbits=1&amp;paritybits=NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.20.135:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uart://uart?port=COM4&amp;baud=115200&amp;databits=8&amp;stopbits=1&amp;paritybits=NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#VID 10&gt;*&lt;CR&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#VID 1&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 2&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 3&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 4&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 5&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 6&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 7&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 8&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 9&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 11&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 12&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 13&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 14&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 15&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 16&gt;*&lt;CR&gt;</t>
-  </si>
-  <si>
-    <t>#VID 17&gt;*&lt;CR&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timeout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wait</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uart://uart?port=COM3&amp;baud=115200&amp;databits=8&amp;stopbits=1&amp;paritybits=NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.20.135:80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uart://uart?port=COM4&amp;baud=115200&amp;databits=8&amp;stopbits=1&amp;paritybits=NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-	"methed":"GET",
-	"url":	"/cgi-bin/query.cgi?cmd=e+e_reconnect%3A%3A0010%3A%3Av&amp;wrap_type=multi_line",
-	"headers":{
-		"content-type": "application/json;charset=UTF-8"
-	},
-	"payload":{}
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~01@VID 9&gt;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~01@VID 11&gt;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~01@VID 12&gt;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~01@VID 13&gt;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~01@VID 14&gt;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~01@VID 16&gt;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~01@VID 17&gt;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#VID 10&gt;*&lt;CR&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~01@VID 10&gt;*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11111~01@VID 15&gt;*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 1&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 2&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 3&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 4&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 5&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 6&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 7&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 8&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 9&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 10&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 11&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 12&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 13&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 14&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 15&gt;*&lt;CR&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 16&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 17&gt;*&lt;CR&gt;&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,25 +544,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -855,50 +849,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -911,10 +905,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -922,38 +916,38 @@
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="77" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>3</v>
@@ -961,19 +955,19 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>17</v>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -981,19 +975,19 @@
       <c r="E3">
         <v>0.5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1001,19 +995,19 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>17</v>
+      <c r="F4" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1021,19 +1015,19 @@
       <c r="E5">
         <v>1.5</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>17</v>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1041,19 +1035,19 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>17</v>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1061,19 +1055,19 @@
       <c r="E7">
         <v>0.5</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
+      <c r="F7" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1084,13 +1078,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -1101,13 +1095,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1118,13 +1112,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1135,13 +1129,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1152,13 +1146,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -1169,13 +1163,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1186,13 +1180,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -1203,13 +1197,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1220,13 +1214,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1237,13 +1231,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1254,13 +1248,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1269,31 +1263,35 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="134.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7">
-        <v>3</v>
-      </c>
-      <c r="E20" s="7">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1301,28 +1299,8 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>17</v>
+      <c r="F21" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/demo/CMD.xlsx
+++ b/demo/CMD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\user_zhangbin\2021\AutoTest\Code\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件\AutoTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D461D9FF-BB7F-434F-A27C-5EF61B053907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8708ABD8-9944-4B39-8F25-EDDCF521135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="1210" windowWidth="27150" windowHeight="18690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="1240" windowWidth="27150" windowHeight="18690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Port" sheetId="2" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <author>zb</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CF22A8BE-6C2B-4E8B-BBA1-E1AAF4E90CA6}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CF22A8BE-6C2B-4E8B-BBA1-E1AAF4E90CA6}">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CF45E416-3DAF-43B8-ADA6-2E9C3D372367}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CF45E416-3DAF-43B8-ADA6-2E9C3D372367}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{E4C236B4-5F53-45B4-B5CB-C8E7B13BAEF6}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E4C236B4-5F53-45B4-B5CB-C8E7B13BAEF6}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{5015F9C0-5487-4B69-96AC-67ADE75E3033}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5015F9C0-5487-4B69-96AC-67ADE75E3033}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{44253E57-D34C-4CA5-818F-93451A5956AE}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{44253E57-D34C-4CA5-818F-93451A5956AE}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{3924D3B9-FC56-4818-965E-943D65103725}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{3924D3B9-FC56-4818-965E-943D65103725}">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>rcvd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LIP-EN2_0_HTTP_80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -391,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.20.135:80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>uart://uart?port=COM4&amp;baud=115200&amp;databits=8&amp;stopbits=1&amp;paritybits=NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -467,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>~01@VID 15&gt;*&lt;CR&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>~01@VID 16&gt;*&lt;CR&gt;&lt;LF&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,7 +467,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试错误</t>
+    <t>VS-1616H2A_HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"methed":"GET",
+	"url" : "/test.cgx?cmd=VID?",
+	"headers":{},
+	"payload":{}
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;value&gt;~01@VID 10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10
+&lt;/value&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试web接口控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS-1616DN_EM_HTTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"methed":"POST",
+	"url" : "/cgi-bin/ligline.cgi",
+	"headers":{
+		"'content-type": "application/json;charset=UTF-8",
+		"accept": "application/json, text/plain, */*"
+	},
+	"payload":"{\"cmd\":\"video_info\"}"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"cmd": "video_info"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.20.141:80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.20.196</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~01@VID 15&gt;*&lt;LF&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -554,6 +600,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6BE10F-D734-4523-B194-D4F5DFBB3B22}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -860,7 +915,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -868,31 +923,39 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -905,402 +968,449 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="77" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1.5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
         <v>0</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
+      <c r="G20" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="84" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="C22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="D22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>9</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/demo/CMD.xlsx
+++ b/demo/CMD.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\软件\AutoTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\user_zhangbin\2021\AutoTest\Code\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8708ABD8-9944-4B39-8F25-EDDCF521135D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02C8E66-1748-42C3-9F20-1D1300E1A263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1240" windowWidth="27150" windowHeight="18690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Port" sheetId="2" r:id="rId1"/>
-    <sheet name="CMD" sheetId="1" r:id="rId2"/>
+    <sheet name="CMD0" sheetId="3" r:id="rId2"/>
+    <sheet name="CMD1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,6 +94,181 @@
     <author>zb</author>
   </authors>
   <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{DA61D597-9B78-4306-BEF4-AE5256F3192F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+虚拟的端口名称,实际的端口映射在PORT表中</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{65A8A146-9B85-4541-BC83-C150A874EF3F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt;CR&gt;=\r
+&lt;LF&gt;=\n
+&lt;HEX&gt;后的数据将以16进制数据方式发送,否则按照ASCII方式发送
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D34B5482-4721-457D-87F0-64BD9E76DAFA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+&lt;RE&gt;表示表格的数据是一个正则表达式</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F71C3510-8162-4ACD-847A-8BF93AFF25A5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位为SEC
+最小粒度为毫秒.
+1ms使用 0.001表示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{D3CDD64A-9FF7-45A0-A766-9473AC93ACA7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位为SEC
+最小粒度为毫秒.
+1ms使用 0.001表示</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5D118EE6-6D5B-4093-A9FB-739AA6CEA2CC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>zb:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果期望忽略这个测试结果,写Y或者y,默认不忽略;
+忽略后,该条测试错误时,不停止脚本
+忽略后,该条测试错误时,记录1条warning日志</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>zb</author>
+  </authors>
+  <commentList>
     <comment ref="B1" authorId="0" shapeId="0" xr:uid="{CF22A8BE-6C2B-4E8B-BBA1-E1AAF4E90CA6}">
       <text>
         <r>
@@ -263,7 +439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t>rcvd</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -892,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6BE10F-D734-4523-B194-D4F5DFBB3B22}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -967,11 +1143,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9D52A2-A6BB-4D41-8038-7B39F2FAACA4}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1142,6 +1422,9 @@
       <c r="F8">
         <v>1</v>
       </c>
+      <c r="G8" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -1159,6 +1442,9 @@
       <c r="F9">
         <v>1.5</v>
       </c>
+      <c r="G9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -1176,6 +1462,9 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
@@ -1193,6 +1482,9 @@
       <c r="F11">
         <v>0.5</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
@@ -1209,6 +1501,9 @@
       </c>
       <c r="F12">
         <v>1</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1227,6 +1522,9 @@
       <c r="F13">
         <v>1.5</v>
       </c>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -1244,6 +1542,9 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
@@ -1261,6 +1562,9 @@
       <c r="F15">
         <v>0.5</v>
       </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -1277,6 +1581,9 @@
       </c>
       <c r="F16">
         <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1298,6 +1605,9 @@
       <c r="F17">
         <v>1.5</v>
       </c>
+      <c r="G17" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
@@ -1315,6 +1625,9 @@
       <c r="F18">
         <v>0</v>
       </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
@@ -1332,6 +1645,9 @@
       <c r="F19">
         <v>0.5</v>
       </c>
+      <c r="G19" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -1392,8 +1708,11 @@
       <c r="F22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="140" x14ac:dyDescent="0.3">
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="126" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>59</v>
       </c>
